--- a/legislator/property/output/normal/吳育仁_2013-12-11_財產申報表_tmpbcc11.xlsx
+++ b/legislator/property/output/normal/吳育仁_2013-12-11_財產申報表_tmpbcc11.xlsx
@@ -21,9 +21,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="107">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="122">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段05930000地號</t>
+  </si>
+  <si>
+    <t>雲林縣斗六市斗六段09060005地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段一小段02810000地號</t>
+  </si>
+  <si>
+    <t>10000分之77</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之424</t>
+  </si>
+  <si>
+    <t>吳育仁</t>
+  </si>
+  <si>
+    <t>蔡瓊姿</t>
+  </si>
+  <si>
+    <t>97年05月07日</t>
+  </si>
+  <si>
+    <t>91年01月04日</t>
+  </si>
+  <si>
+    <t>95年11月07日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>16000000((房地總價額）)</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-11</t>
+  </si>
+  <si>
+    <t>tmpbcc11</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -44,106 +140,58 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市大安區學府段一小段 0593-0000 地號</t>
-  </si>
-  <si>
-    <t>雲林縣斗六市斗六段 0906-0005 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段一小段 0281-0000 地號</t>
-  </si>
-  <si>
-    <t>10000分之 77</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 424</t>
-  </si>
-  <si>
-    <t>吳育仁</t>
-  </si>
-  <si>
-    <t>蔡瓊姿</t>
-  </si>
-  <si>
-    <t>97年05月 07日</t>
-  </si>
-  <si>
-    <t>91年01月 04日</t>
-  </si>
-  <si>
-    <t>95年11月 07日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>16，000，000((房 地總價額）)</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段 01612-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段 03396-000 建號</t>
-  </si>
-  <si>
-    <t>雲林縣斗六市斗六段六小段 05763-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段一小段 02859-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段一小段 02860-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段一小段 02864-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區瑞安段一小段 02844-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區學府段一小段 03391-000 建號</t>
-  </si>
-  <si>
-    <t>10000分之 3429</t>
-  </si>
-  <si>
-    <t>10000分之 473</t>
-  </si>
-  <si>
-    <t>10000分之 5237</t>
-  </si>
-  <si>
-    <t>10000分之 426</t>
-  </si>
-  <si>
-    <t>10000分之 82</t>
-  </si>
-  <si>
-    <t>88年04月 08日</t>
-  </si>
-  <si>
-    <t>88年07月 20日</t>
-  </si>
-  <si>
-    <t>97年05月 07日 ‘</t>
-  </si>
-  <si>
-    <t>16，000,000((房 地總價額）與台 北市大安區學府 段一小段一起購 買）</t>
-  </si>
-  <si>
-    <t>16，000，000((房 地總價額）與台 北市大安區學府 段一小段一起購 買（共同使用部 分）</t>
-  </si>
-  <si>
-    <t>16，000，000((房 地總價額）與台 北市大安區學府 段一小段一起購 買）</t>
+    <t>臺北市大安區學府段一小段01612000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段03396000建號</t>
+  </si>
+  <si>
+    <t>雲林縣斗六市斗六段六小段05763000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段一小段02859000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段一小段02860000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段一小段02864000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區瑞安段一小段02844000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區學府段一小段03391000建號</t>
+  </si>
+  <si>
+    <t>10000分之3429</t>
+  </si>
+  <si>
+    <t>10000分之473</t>
+  </si>
+  <si>
+    <t>10000分之5237</t>
+  </si>
+  <si>
+    <t>10000分之426</t>
+  </si>
+  <si>
+    <t>10000分之82</t>
+  </si>
+  <si>
+    <t>88年04月08日</t>
+  </si>
+  <si>
+    <t>88年07月20日</t>
+  </si>
+  <si>
+    <t>97年05月07日‘</t>
+  </si>
+  <si>
+    <t>16000000((房地總價額）與台北市大安區學府段一小段一起購買）</t>
+  </si>
+  <si>
+    <t>16000000((房地總價額）與台北市大安區學府段一小段一起購買（共同使用部分）</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -155,16 +203,16 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>Mercedes-Benz</t>
-  </si>
-  <si>
-    <t>102 年 10 月02日</t>
+    <t>MercedesBenz</t>
+  </si>
+  <si>
+    <t>102年10月02日</t>
   </si>
   <si>
     <t>幣別</t>
   </si>
   <si>
-    <t>外，幣總額</t>
+    <t>外幣總額</t>
   </si>
   <si>
     <t>新臺幣總額或折合新臺幣總額</t>
@@ -182,10 +230,7 @@
     <t>種類</t>
   </si>
   <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>臺灣中小企業銀行斗六分 行</t>
+    <t>臺灣中小企業銀行斗六分行</t>
   </si>
   <si>
     <t>玉山商業銀行斗六分行</t>
@@ -200,13 +245,13 @@
     <t>元大商業銀行斗信分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行斗六分 行</t>
+    <t>中國信託商業銀行斗六分行</t>
   </si>
   <si>
     <t>臺灣土地銀行斗六分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行大安分 行</t>
+    <t>台北富邦商業銀行大安分行</t>
   </si>
   <si>
     <t>臺灣銀行大安分行</t>
@@ -230,7 +275,7 @@
     <t>財產種類</t>
   </si>
   <si>
-    <t>項/件</t>
+    <t>項件</t>
   </si>
   <si>
     <t>價額</t>
@@ -263,16 +308,16 @@
     <t>珍珠</t>
   </si>
   <si>
-    <t>1,000，000</t>
-  </si>
-  <si>
-    <t>720,000(12 兩）</t>
-  </si>
-  <si>
-    <t>1，300,000</t>
-  </si>
-  <si>
-    <t>440，000</t>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>720000(12兩）</t>
+  </si>
+  <si>
+    <t>1300000</t>
+  </si>
+  <si>
+    <t>440000</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -314,7 +359,7 @@
     <t>外幣終身保險</t>
   </si>
   <si>
-    <t>意外骨折及特定手術傷害保 險</t>
+    <t>意外骨折及特定手術傷害保險</t>
   </si>
   <si>
     <t>債務人</t>
@@ -335,10 +380,10 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>玉山銀行 臺北市中山區民生東路3段 115號</t>
-  </si>
-  <si>
-    <t>國泰人壽保險司 臺北市大安區仁愛路4段 296號</t>
+    <t>玉山銀行臺北市中山區民生東路3段115號</t>
+  </si>
+  <si>
+    <t>國泰人壽保險司臺北市大安區仁愛路4段296號</t>
   </si>
   <si>
     <t>購屋</t>
@@ -700,13 +745,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,83 +773,167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>812</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1734</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1734</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1138</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1734</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -822,25 +951,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -848,25 +977,25 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>56.62</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -874,25 +1003,25 @@
         <v>22</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>6.76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -900,25 +1029,25 @@
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2">
         <v>282.1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -926,25 +1055,25 @@
         <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2">
         <v>126.47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -952,25 +1081,25 @@
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2">
         <v>419.31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -978,25 +1107,25 @@
         <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2">
         <v>33.63</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1004,25 +1133,25 @@
         <v>28</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2">
         <v>202.63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1030,25 +1159,25 @@
         <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2">
         <v>1303.56</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1066,22 +1195,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1089,19 +1218,19 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>3500</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2">
         <v>4000000</v>
@@ -1122,16 +1251,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1139,10 +1268,10 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
@@ -1154,10 +1283,10 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2">
         <v>10000</v>
@@ -1171,10 +1300,10 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
@@ -1196,22 +1325,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1219,16 +1348,16 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1240,16 +1369,16 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1261,16 +1390,16 @@
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -1282,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1303,16 +1432,16 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1324,16 +1453,16 @@
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1345,16 +1474,16 @@
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1366,16 +1495,16 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1387,16 +1516,16 @@
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2">
         <v>549.11</v>
@@ -1410,16 +1539,16 @@
         <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2">
         <v>100</v>
@@ -1443,16 +1572,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1460,16 +1589,16 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1477,13 +1606,13 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2">
         <v>600000</v>
@@ -1494,13 +1623,13 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>800000</v>
@@ -1511,13 +1640,13 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>600000</v>
@@ -1528,16 +1657,16 @@
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2">
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1545,16 +1674,16 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2">
         <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1562,13 +1691,13 @@
         <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2">
         <v>300000</v>
@@ -1579,13 +1708,13 @@
         <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>200000</v>
@@ -1596,13 +1725,13 @@
         <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2">
         <v>500000</v>
@@ -1613,13 +1742,13 @@
         <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2">
         <v>280000</v>
@@ -1630,16 +1759,16 @@
         <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1647,13 +1776,13 @@
         <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E13" s="2">
         <v>400000</v>
@@ -1674,13 +1803,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1688,13 +1817,13 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1702,13 +1831,13 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1716,13 +1845,13 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1730,13 +1859,13 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1744,13 +1873,13 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1758,13 +1887,13 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1772,13 +1901,13 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1796,22 +1925,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1819,22 +1948,22 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2">
         <v>12819300</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1842,22 +1971,22 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2">
         <v>41033751</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳育仁_2013-12-11_財產申報表_tmpbcc11.xlsx
+++ b/legislator/property/output/normal/吳育仁_2013-12-11_財產申報表_tmpbcc11.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>16000000((房地總價額）與台北市大安區學府段一小段一起購買（共同使用部分）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>MercedesBenz</t>
@@ -1382,38 +1385,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1">
-        <v>3500</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1">
-        <v>4000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2">
         <v>3500</v>
@@ -1422,13 +1446,34 @@
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="2">
         <v>4000000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1734</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1446,7 +1491,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -1461,7 +1506,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1476,7 +1521,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1493,7 +1538,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -1518,13 +1563,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1539,13 +1584,13 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1560,13 +1605,13 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1581,13 +1626,13 @@
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1602,13 +1647,13 @@
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1623,13 +1668,13 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1644,13 +1689,13 @@
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1665,13 +1710,13 @@
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -1686,13 +1731,13 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -1707,13 +1752,13 @@
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -1730,13 +1775,13 @@
         <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
@@ -1763,7 +1808,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1">
         <v>3</v>
@@ -1772,7 +1817,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1780,7 +1825,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -1789,7 +1834,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1797,7 +1842,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1814,7 +1859,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -1831,7 +1876,7 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -1848,7 +1893,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2">
         <v>12</v>
@@ -1857,7 +1902,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1865,7 +1910,7 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C7" s="2">
         <v>50</v>
@@ -1874,7 +1919,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1882,7 +1927,7 @@
         <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -1899,7 +1944,7 @@
         <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -1916,7 +1961,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1933,7 +1978,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1950,7 +1995,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -1959,7 +2004,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1967,7 +2012,7 @@
         <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
@@ -1994,10 +2039,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
@@ -2008,10 +2053,10 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
@@ -2022,10 +2067,10 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -2036,10 +2081,10 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -2050,10 +2095,10 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -2064,10 +2109,10 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -2078,10 +2123,10 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -2092,10 +2137,10 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
@@ -2116,13 +2161,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1">
         <v>12819300</v>
@@ -2131,7 +2176,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2139,13 +2184,13 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2">
         <v>12819300</v>
@@ -2154,7 +2199,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2162,13 +2207,13 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2">
         <v>41033751</v>
@@ -2177,7 +2222,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳育仁_2013-12-11_財產申報表_tmpbcc11.xlsx
+++ b/legislator/property/output/normal/吳育仁_2013-12-11_財產申報表_tmpbcc11.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="101">
   <si>
     <t>name</t>
   </si>
@@ -179,6 +179,9 @@
     <t>16000000((房地總價額）與台北市大安區學府段一小段一起購買（共同使用部分）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
   </si>
   <si>
     <t>102年10月02日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>新臺幣</t>
@@ -980,7 +986,7 @@
         <v>50</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>31</v>
@@ -1033,7 +1039,7 @@
         <v>51</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>31</v>
@@ -1086,7 +1092,7 @@
         <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>31</v>
@@ -1139,7 +1145,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>31</v>
@@ -1192,7 +1198,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>31</v>
@@ -1245,7 +1251,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>31</v>
@@ -1298,7 +1304,7 @@
         <v>29</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>31</v>
@@ -1351,7 +1357,7 @@
         <v>50</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>31</v>
@@ -1396,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1437,7 +1443,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2">
         <v>3500</v>
@@ -1446,7 +1452,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>27</v>
@@ -1455,7 +1461,7 @@
         <v>4000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>31</v>
@@ -1491,7 +1497,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
@@ -1506,7 +1512,7 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1521,7 +1527,7 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
@@ -1538,7 +1544,7 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
@@ -1563,13 +1569,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1584,13 +1590,13 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1605,13 +1611,13 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1626,13 +1632,13 @@
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1647,13 +1653,13 @@
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -1668,13 +1674,13 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1689,13 +1695,13 @@
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1710,13 +1716,13 @@
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -1731,13 +1737,13 @@
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
@@ -1752,13 +1758,13 @@
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
@@ -1775,13 +1781,13 @@
         <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
@@ -1808,7 +1814,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1">
         <v>3</v>
@@ -1817,7 +1823,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1825,7 +1831,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -1834,7 +1840,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1842,7 +1848,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1859,7 +1865,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -1876,7 +1882,7 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -1893,7 +1899,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2">
         <v>12</v>
@@ -1902,7 +1908,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1910,7 +1916,7 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2">
         <v>50</v>
@@ -1919,7 +1925,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1927,7 +1933,7 @@
         <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -1944,7 +1950,7 @@
         <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -1961,7 +1967,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1978,7 +1984,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1995,7 +2001,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -2004,7 +2010,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2012,7 +2018,7 @@
         <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
@@ -2039,10 +2045,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
@@ -2053,10 +2059,10 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
@@ -2067,10 +2073,10 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -2081,10 +2087,10 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -2095,10 +2101,10 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -2109,10 +2115,10 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -2123,10 +2129,10 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -2137,10 +2143,10 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
@@ -2161,13 +2167,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1">
         <v>12819300</v>
@@ -2176,7 +2182,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2184,13 +2190,13 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E2" s="2">
         <v>12819300</v>
@@ -2199,7 +2205,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2207,13 +2213,13 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E3" s="2">
         <v>41033751</v>
@@ -2222,7 +2228,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳育仁_2013-12-11_財產申報表_tmpbcc11.xlsx
+++ b/legislator/property/output/normal/吳育仁_2013-12-11_財產申報表_tmpbcc11.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="106">
   <si>
     <t>name</t>
   </si>
@@ -194,42 +194,54 @@
     <t>car</t>
   </si>
   <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
     <t>美金</t>
   </si>
   <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
     <t>臺灣中小企業銀行斗六分行</t>
   </si>
   <si>
+    <t>玉山商業銀行斗六分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行斗六分行</t>
+  </si>
+  <si>
+    <t>台北大學郵局</t>
+  </si>
+  <si>
+    <t>元大商業銀行斗信分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行斗六分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行斗六分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行大安分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行大安分行</t>
+  </si>
+  <si>
     <t>綜合存政</t>
   </si>
   <si>
-    <t>玉山商業銀行斗六分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行斗六分行</t>
-  </si>
-  <si>
-    <t>台北大學郵局</t>
-  </si>
-  <si>
-    <t>元大商業銀行斗信分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行斗六分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行斗六分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行大安分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行大安分行</t>
-  </si>
-  <si>
     <t>綜合存款</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
   </si>
   <si>
     <t>綜合存款.</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>鑽戒</t>
@@ -1489,69 +1504,147 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
+      <c r="D2" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E3" s="2">
         <v>292000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
+      <c r="D4" s="2">
         <v>3000000</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1561,242 +1654,458 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>1023635</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>1023635</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1734</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2">
+        <v>103269</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1734</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="2">
         <v>57</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>103269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>404136</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1734</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>1179285</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1734</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>133337</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1734</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>1070331</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1734</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>1974</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1734</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>64</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>866838</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1734</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>65</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="2">
-        <v>549.11</v>
-      </c>
-      <c r="G10" s="2">
         <v>16050.48</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1734</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>66</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="2">
-        <v>100</v>
-      </c>
-      <c r="G11" s="2">
         <v>2923</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1734</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" s="2">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1814,7 +2123,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C1" s="1">
         <v>3</v>
@@ -1823,7 +2132,7 @@
         <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1831,7 +2140,7 @@
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -1840,7 +2149,7 @@
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1848,7 +2157,7 @@
         <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -1865,7 +2174,7 @@
         <v>94</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C4" s="2">
         <v>2</v>
@@ -1882,7 +2191,7 @@
         <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C5" s="2">
         <v>3</v>
@@ -1899,7 +2208,7 @@
         <v>96</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C6" s="2">
         <v>12</v>
@@ -1908,7 +2217,7 @@
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1916,7 +2225,7 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2">
         <v>50</v>
@@ -1925,7 +2234,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1933,7 +2242,7 @@
         <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -1950,7 +2259,7 @@
         <v>99</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -1967,7 +2276,7 @@
         <v>100</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1984,7 +2293,7 @@
         <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -2001,7 +2310,7 @@
         <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -2010,7 +2319,7 @@
         <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2018,7 +2327,7 @@
         <v>104</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
@@ -2045,10 +2354,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
@@ -2059,10 +2368,10 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
@@ -2073,10 +2382,10 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -2087,10 +2396,10 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -2101,10 +2410,10 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -2115,10 +2424,10 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -2129,10 +2438,10 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -2143,10 +2452,10 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
@@ -2167,13 +2476,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1">
         <v>12819300</v>
@@ -2182,7 +2491,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2190,13 +2499,13 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E2" s="2">
         <v>12819300</v>
@@ -2205,7 +2514,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2213,13 +2522,13 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E3" s="2">
         <v>41033751</v>
@@ -2228,7 +2537,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳育仁_2013-12-11_財產申報表_tmpbcc11.xlsx
+++ b/legislator/property/output/normal/吳育仁_2013-12-11_財產申報表_tmpbcc11.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="108">
   <si>
     <t>name</t>
   </si>
@@ -257,36 +257,39 @@
     <t>deposit</t>
   </si>
   <si>
+    <t>quantity</t>
+  </si>
+  <si>
     <t>鑽戒</t>
   </si>
   <si>
+    <t>手錶</t>
+  </si>
+  <si>
+    <t>項鍊</t>
+  </si>
+  <si>
+    <t>手鐲</t>
+  </si>
+  <si>
+    <t>黃金</t>
+  </si>
+  <si>
+    <t>字畫</t>
+  </si>
+  <si>
+    <t>木雕</t>
+  </si>
+  <si>
+    <t>琉璃</t>
+  </si>
+  <si>
+    <t>珍珠</t>
+  </si>
+  <si>
     <t>1000000</t>
   </si>
   <si>
-    <t>手錶</t>
-  </si>
-  <si>
-    <t>項鍊</t>
-  </si>
-  <si>
-    <t>手鐲</t>
-  </si>
-  <si>
-    <t>黃金</t>
-  </si>
-  <si>
-    <t>字畫</t>
-  </si>
-  <si>
-    <t>木雕</t>
-  </si>
-  <si>
-    <t>琉璃</t>
-  </si>
-  <si>
-    <t>珍珠</t>
-  </si>
-  <si>
     <t>720000(12兩）</t>
   </si>
   <si>
@@ -294,6 +297,9 @@
   </si>
   <si>
     <t>440000</t>
+  </si>
+  <si>
+    <t>otherbonds</t>
   </si>
   <si>
     <t>全球人壽</t>
@@ -2115,32 +2121,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>92</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -2149,10 +2176,31 @@
         <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>88</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>93</v>
       </c>
@@ -2168,8 +2216,29 @@
       <c r="E3" s="2">
         <v>600000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>94</v>
       </c>
@@ -2185,8 +2254,29 @@
       <c r="E4" s="2">
         <v>800000</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>95</v>
       </c>
@@ -2202,8 +2292,29 @@
       <c r="E5" s="2">
         <v>600000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>96</v>
       </c>
@@ -2217,10 +2328,31 @@
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>89</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>97</v>
       </c>
@@ -2234,10 +2366,31 @@
         <v>23</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>90</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>98</v>
       </c>
@@ -2253,8 +2406,29 @@
       <c r="E8" s="2">
         <v>300000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>99</v>
       </c>
@@ -2270,8 +2444,29 @@
       <c r="E9" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>100</v>
       </c>
@@ -2287,13 +2482,34 @@
       <c r="E10" s="2">
         <v>500000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>101</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -2304,8 +2520,29 @@
       <c r="E11" s="2">
         <v>280000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>103</v>
       </c>
@@ -2319,10 +2556,31 @@
         <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>91</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>104</v>
       </c>
@@ -2337,6 +2595,27 @@
       </c>
       <c r="E13" s="2">
         <v>400000</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1734</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="2">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2354,10 +2633,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
@@ -2368,10 +2647,10 @@
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
@@ -2382,10 +2661,10 @@
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -2396,10 +2675,10 @@
         <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -2410,10 +2689,10 @@
         <v>112</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -2424,10 +2703,10 @@
         <v>113</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -2438,10 +2717,10 @@
         <v>114</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -2452,10 +2731,10 @@
         <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
@@ -2476,13 +2755,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1">
         <v>12819300</v>
@@ -2491,7 +2770,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2499,13 +2778,13 @@
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2">
         <v>12819300</v>
@@ -2514,7 +2793,7 @@
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2522,13 +2801,13 @@
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2">
         <v>41033751</v>
@@ -2537,7 +2816,7 @@
         <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/吳育仁_2013-12-11_財產申報表_tmpbcc11.xlsx
+++ b/legislator/property/output/normal/吳育仁_2013-12-11_財產申報表_tmpbcc11.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="113">
   <si>
     <t>name</t>
   </si>
@@ -299,24 +299,27 @@
     <t>440000</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
+  </si>
+  <si>
+    <t>company</t>
   </si>
   <si>
     <t>全球人壽</t>
   </si>
   <si>
+    <t>宏泰人壽</t>
+  </si>
+  <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
     <t>理財型增額終身壽險</t>
   </si>
   <si>
-    <t>宏泰人壽</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
     <t>防癌終身健康保險</t>
   </si>
   <si>
@@ -335,16 +338,28 @@
     <t>意外骨折及特定手術傷害保險</t>
   </si>
   <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
     <t>玉山銀行臺北市中山區民生東路3段115號</t>
   </si>
   <si>
+    <t>國泰人壽保險司臺北市大安區仁愛路4段296號</t>
+  </si>
+  <si>
     <t>購屋</t>
   </si>
   <si>
-    <t>國泰人壽保險司臺北市大安區仁愛路4段296號</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2625,52 +2640,115 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>111</v>
       </c>
@@ -2678,13 +2756,34 @@
         <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>112</v>
       </c>
@@ -2692,13 +2791,34 @@
         <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>113</v>
       </c>
@@ -2706,13 +2826,34 @@
         <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>114</v>
       </c>
@@ -2720,13 +2861,34 @@
         <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>115</v>
       </c>
@@ -2734,10 +2896,31 @@
         <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1734</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2747,44 +2930,65 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="1">
-        <v>12819300</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>125</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2">
         <v>12819300</v>
@@ -2793,21 +2997,42 @@
         <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>111</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1734</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>126</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2">
         <v>41033751</v>
@@ -2816,7 +3041,28 @@
         <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1734</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="2">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
